--- a/Documents/Abhiram S_TestCase_Capstone Project.xlsx
+++ b/Documents/Abhiram S_TestCase_Capstone Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Attachments\Desktop\Wipro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\DemoWebShop\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2178EF-24CE-424A-BA29-DA56EC97D19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A30692-E60F-4712-85F1-5B253803C4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB83F1CF-1DFE-4218-9275-B661DB1ECACC}"/>
+    <workbookView xWindow="2088" yWindow="3144" windowWidth="17280" windowHeight="8880" xr2:uid="{DB83F1CF-1DFE-4218-9275-B661DB1ECACC}"/>
   </bookViews>
   <sheets>
     <sheet name="DemoWebShopTest" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>Project Name :</t>
   </si>
@@ -247,6 +247,51 @@
   </si>
   <si>
     <t>abhiramannur2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Simple Computer is visible in the cart.</t>
+  </si>
+  <si>
+    <t>TC_CNF_002</t>
+  </si>
+  <si>
+    <t>Verify multiple products in the cart</t>
+  </si>
+  <si>
+    <t>User verifies the whether multiple products that were added is in the cart or not.</t>
+  </si>
+  <si>
+    <t>Products are visible in the shopping cart.</t>
+  </si>
+  <si>
+    <t>All the products that were added are visible</t>
+  </si>
+  <si>
+    <t>TS_CHKOUT_001</t>
+  </si>
+  <si>
+    <t>TC_CHKOUT_001</t>
+  </si>
+  <si>
+    <t>Verify checkout of products in cart</t>
+  </si>
+  <si>
+    <t>User performs checkout of the products in the cart</t>
+  </si>
+  <si>
+    <t>User must be in demo web shop home page, logged in, and must have added some products to cart.</t>
+  </si>
+  <si>
+    <t>1. Navigate/click shopping cart.
+2. Check/verify whether added products is in the cart.
+3. Perform checkout by providing billing address and all other detials.
+4. Click confirm order</t>
+  </si>
+  <si>
+    <t>Successful checkout is done and order details are shown</t>
+  </si>
+  <si>
+    <t>Order details shown</t>
   </si>
 </sst>
 </file>
@@ -298,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -321,38 +366,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -369,14 +388,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D4874-45B9-42DA-AFA2-D567A5EED5D5}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +756,7 @@
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -739,10 +764,10 @@
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -774,7 +799,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -798,12 +823,12 @@
       <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -825,12 +850,12 @@
       <c r="H8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -854,12 +879,12 @@
       <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -881,7 +906,7 @@
       <c r="H10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -910,7 +935,7 @@
       <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -939,7 +964,7 @@
       <c r="H12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -968,15 +993,101 @@
       <c r="H13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B62C8B7F-9452-4B0A-83E1-A71B0A284533}"/>
